--- a/data_year/zb/城市概况/城市供水.xlsx
+++ b/data_year/zb/城市概况/城市供水.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,477 +473,337 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.820709932087</v>
+        <v>171.43</v>
       </c>
       <c r="C2" t="n">
-        <v>490.2755</v>
+        <v>507.874514</v>
       </c>
       <c r="D2" t="n">
-        <v>358410.49</v>
+        <v>539778.3</v>
       </c>
       <c r="E2" t="n">
-        <v>24753.02</v>
+        <v>27601.47</v>
       </c>
       <c r="F2" t="n">
-        <v>211.3633</v>
+        <v>195.25338</v>
       </c>
       <c r="G2" t="n">
-        <v>233.4625</v>
+        <v>238.752505</v>
       </c>
       <c r="H2" t="n">
-        <v>30339.68</v>
+        <v>38156.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>204.066111293489</v>
+        <v>170.94</v>
       </c>
       <c r="C3" t="n">
-        <v>502.0601</v>
+        <v>513.422183</v>
       </c>
       <c r="D3" t="n">
-        <v>379332.07</v>
+        <v>573773.79</v>
       </c>
       <c r="E3" t="n">
-        <v>24719.82</v>
+        <v>26668.73</v>
       </c>
       <c r="F3" t="n">
-        <v>209.8008</v>
+        <v>159.652121</v>
       </c>
       <c r="G3" t="n">
-        <v>243.7374</v>
+        <v>247.65195</v>
       </c>
       <c r="H3" t="n">
-        <v>32723.4</v>
+        <v>39691.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.32</v>
+        <v>171.79</v>
       </c>
       <c r="C4" t="n">
-        <v>540.4794000000001</v>
+        <v>523.0326</v>
       </c>
       <c r="D4" t="n">
-        <v>430397</v>
+        <v>591872.11</v>
       </c>
       <c r="E4" t="n">
-        <v>26961.6</v>
+        <v>27177.32</v>
       </c>
       <c r="F4" t="n">
-        <v>252.6259</v>
+        <v>159.272341</v>
       </c>
       <c r="G4" t="n">
-        <v>222.0313</v>
+        <v>257.2473</v>
       </c>
       <c r="H4" t="n">
-        <v>32303.08</v>
+        <v>41026.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>178.385938141708</v>
+        <v>173.51</v>
       </c>
       <c r="C5" t="n">
-        <v>501.948818</v>
+        <v>537.302171</v>
       </c>
       <c r="D5" t="n">
-        <v>447229.23</v>
+        <v>646413.4</v>
       </c>
       <c r="E5" t="n">
-        <v>25708.36</v>
+        <v>28373.39</v>
       </c>
       <c r="F5" t="n">
-        <v>182.853017</v>
+        <v>161.741162</v>
       </c>
       <c r="G5" t="n">
-        <v>226.367567</v>
+        <v>267.6465595856</v>
       </c>
       <c r="H5" t="n">
-        <v>34766.48</v>
+        <v>42261.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178.19</v>
+        <v>173.73</v>
       </c>
       <c r="C6" t="n">
-        <v>500.076246</v>
+        <v>546.661256</v>
       </c>
       <c r="D6" t="n">
-        <v>480083.85</v>
+        <v>676727.4300000001</v>
       </c>
       <c r="E6" t="n">
-        <v>26604.06</v>
+        <v>28673.33</v>
       </c>
       <c r="F6" t="n">
-        <v>177.663031</v>
+        <v>162.383685</v>
       </c>
       <c r="G6" t="n">
-        <v>228.203022</v>
+        <v>275.691137</v>
       </c>
       <c r="H6" t="n">
-        <v>35086.66</v>
+        <v>43476.32</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.58</v>
+        <v>174.46</v>
       </c>
       <c r="C7" t="n">
-        <v>496.74674</v>
+        <v>560.472843</v>
       </c>
       <c r="D7" t="n">
-        <v>510399.39</v>
+        <v>710206.39</v>
       </c>
       <c r="E7" t="n">
-        <v>27046.83</v>
+        <v>29678.26</v>
       </c>
       <c r="F7" t="n">
-        <v>191.020611</v>
+        <v>162.433492</v>
       </c>
       <c r="G7" t="n">
-        <v>233.408189</v>
+        <v>287.269503</v>
       </c>
       <c r="H7" t="n">
-        <v>36214.21</v>
+        <v>45112.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>171.43</v>
+        <v>176.86</v>
       </c>
       <c r="C8" t="n">
-        <v>507.874514</v>
+        <v>580.691121</v>
       </c>
       <c r="D8" t="n">
-        <v>539778.3</v>
+        <v>756623.49</v>
       </c>
       <c r="E8" t="n">
-        <v>27601.47</v>
+        <v>30320.66</v>
       </c>
       <c r="F8" t="n">
-        <v>195.25338</v>
+        <v>160.691075</v>
       </c>
       <c r="G8" t="n">
-        <v>238.752505</v>
+        <v>303.137635</v>
       </c>
       <c r="H8" t="n">
-        <v>38156.7</v>
+        <v>46958.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>170.94</v>
+        <v>178.89</v>
       </c>
       <c r="C9" t="n">
-        <v>513.422183</v>
+        <v>593.759098</v>
       </c>
       <c r="D9" t="n">
-        <v>573773.79</v>
+        <v>797355.01</v>
       </c>
       <c r="E9" t="n">
-        <v>26668.73</v>
+        <v>30475</v>
       </c>
       <c r="F9" t="n">
-        <v>159.652121</v>
+        <v>160.667368</v>
       </c>
       <c r="G9" t="n">
-        <v>247.65195</v>
+        <v>315.396818</v>
       </c>
       <c r="H9" t="n">
-        <v>39691.29</v>
+        <v>48303.52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.79</v>
+        <v>179.697192446409</v>
       </c>
       <c r="C10" t="n">
-        <v>523.0326</v>
+        <v>614.635459</v>
       </c>
       <c r="D10" t="n">
-        <v>591872.11</v>
+        <v>866820.24</v>
       </c>
       <c r="E10" t="n">
-        <v>27177.32</v>
+        <v>31221.84</v>
       </c>
       <c r="F10" t="n">
-        <v>159.272341</v>
+        <v>161.955114</v>
       </c>
       <c r="G10" t="n">
-        <v>257.2473</v>
+        <v>328.791439</v>
       </c>
       <c r="H10" t="n">
-        <v>41026.48</v>
+        <v>50310.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.51</v>
+        <v>179.965286964322</v>
       </c>
       <c r="C11" t="n">
-        <v>537.302171</v>
+        <v>628.301008</v>
       </c>
       <c r="D11" t="n">
-        <v>646413.4</v>
+        <v>920082.14</v>
       </c>
       <c r="E11" t="n">
-        <v>28373.39</v>
+        <v>30897.8</v>
       </c>
       <c r="F11" t="n">
-        <v>161.741162</v>
+        <v>161.564694</v>
       </c>
       <c r="G11" t="n">
-        <v>267.6465595856</v>
+        <v>340.116053</v>
       </c>
       <c r="H11" t="n">
-        <v>42261.44</v>
+        <v>51778.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>173.73</v>
+        <v>179.395736536233</v>
       </c>
       <c r="C12" t="n">
-        <v>546.661256</v>
+        <v>629.541956</v>
       </c>
       <c r="D12" t="n">
-        <v>676727.4300000001</v>
+        <v>1006910.02</v>
       </c>
       <c r="E12" t="n">
-        <v>28673.33</v>
+        <v>32072.65</v>
       </c>
       <c r="F12" t="n">
-        <v>162.383685</v>
+        <v>156.38717</v>
       </c>
       <c r="G12" t="n">
-        <v>275.691137</v>
+        <v>348.464379</v>
       </c>
       <c r="H12" t="n">
-        <v>43476.32</v>
+        <v>53217.37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>174.46</v>
+        <v>185.03</v>
       </c>
       <c r="C13" t="n">
-        <v>560.472843</v>
+        <v>673.344245</v>
       </c>
       <c r="D13" t="n">
-        <v>710206.39</v>
+        <v>1059901.18</v>
       </c>
       <c r="E13" t="n">
-        <v>29678.26</v>
+        <v>31737.67</v>
       </c>
       <c r="F13" t="n">
-        <v>162.433492</v>
+        <v>170.436268</v>
       </c>
       <c r="G13" t="n">
-        <v>287.269503</v>
+        <v>375.378253</v>
       </c>
       <c r="H13" t="n">
-        <v>45112.62</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>176.86</v>
-      </c>
-      <c r="C14" t="n">
-        <v>580.691121</v>
-      </c>
-      <c r="D14" t="n">
-        <v>756623.49</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30320.66</v>
-      </c>
-      <c r="F14" t="n">
-        <v>160.691075</v>
-      </c>
-      <c r="G14" t="n">
-        <v>303.137635</v>
-      </c>
-      <c r="H14" t="n">
-        <v>46958.38</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>178.89</v>
-      </c>
-      <c r="C15" t="n">
-        <v>593.759098</v>
-      </c>
-      <c r="D15" t="n">
-        <v>797355.01</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30475</v>
-      </c>
-      <c r="F15" t="n">
-        <v>160.667368</v>
-      </c>
-      <c r="G15" t="n">
-        <v>315.396818</v>
-      </c>
-      <c r="H15" t="n">
-        <v>48303.52</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>179.697192446409</v>
-      </c>
-      <c r="C16" t="n">
-        <v>614.635459</v>
-      </c>
-      <c r="D16" t="n">
-        <v>866820.24</v>
-      </c>
-      <c r="E16" t="n">
-        <v>31221.84</v>
-      </c>
-      <c r="F16" t="n">
-        <v>161.955114</v>
-      </c>
-      <c r="G16" t="n">
-        <v>328.791439</v>
-      </c>
-      <c r="H16" t="n">
-        <v>50310.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>179.965286964322</v>
-      </c>
-      <c r="C17" t="n">
-        <v>628.301008</v>
-      </c>
-      <c r="D17" t="n">
-        <v>920082.14</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30897.8</v>
-      </c>
-      <c r="F17" t="n">
-        <v>161.564694</v>
-      </c>
-      <c r="G17" t="n">
-        <v>340.116053</v>
-      </c>
-      <c r="H17" t="n">
-        <v>51778.03</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>179.395736536233</v>
-      </c>
-      <c r="C18" t="n">
-        <v>629.541956</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1006910.02</v>
-      </c>
-      <c r="E18" t="n">
-        <v>32072.65</v>
-      </c>
-      <c r="F18" t="n">
-        <v>156.38717</v>
-      </c>
-      <c r="G18" t="n">
-        <v>348.464379</v>
-      </c>
-      <c r="H18" t="n">
-        <v>53217.37</v>
+        <v>55580.86</v>
       </c>
     </row>
   </sheetData>
